--- a/data/boundary-value-analysis.xlsx
+++ b/data/boundary-value-analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\7-Golang\software-testing-experiment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4885B296-F0ED-461F-B14F-FC04B272E358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E81ED-ED56-46D9-A9B0-706117FADCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Isosceles</t>
   </si>
@@ -110,6 +110,14 @@
   </si>
   <si>
     <t>100,200,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not a Triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isosceles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +500,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="A1:B29"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,7 +546,7 @@
         <v>100100200</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -546,7 +554,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -554,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -570,7 +578,7 @@
         <v>100200100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -586,7 +594,7 @@
         <v>1100100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -618,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,7 +698,7 @@
         <v>100199199</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
